--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -1,26 +1,171 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="2760" windowWidth="18312" windowHeight="6096"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+  <si>
+    <t>Mountain Dew</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>Diet Coke</t>
+  </si>
+  <si>
+    <t>product1</t>
+  </si>
+  <si>
+    <t>Product2</t>
+  </si>
+  <si>
+    <t>product3</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Payment Gatway</t>
+  </si>
+  <si>
+    <t>CardCvv</t>
+  </si>
+  <si>
+    <t>CardNo</t>
+  </si>
+  <si>
+    <t>CardExpiry</t>
+  </si>
+  <si>
+    <t>WevendHompageTitle</t>
+  </si>
+  <si>
+    <t>CheckoutPageTitle</t>
+  </si>
+  <si>
+    <t>Checkout</t>
+  </si>
+  <si>
+    <t>PayemtGatwayPageTitle</t>
+  </si>
+  <si>
+    <t>SuccessPageTitle</t>
+  </si>
+  <si>
+    <t>CarwashHomepagePageTitle</t>
+  </si>
+  <si>
+    <t>weVend Pay</t>
+  </si>
+  <si>
+    <r>
+      <t>PaymentPageTitle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>WevendStoreUrl</t>
+  </si>
+  <si>
+    <t>http://wevend.shop/?deviceId=64a81146a3a16e9c7dba0d97</t>
+  </si>
+  <si>
+    <t>http://wevendmqtt.click/homepage?deviceId=64c38c17088d29fa43a1ad89</t>
+  </si>
+  <si>
+    <t>carWashUrl</t>
+  </si>
+  <si>
+    <t>4111111111111111</t>
+  </si>
+  <si>
+    <t>WeVend Store</t>
+  </si>
+  <si>
+    <t>Success Page</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Car Wash </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>App</t>
+    </r>
+  </si>
+  <si>
+    <t>0624</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF2A00FF"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF2A00FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -46,14 +191,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -343,36 +504,186 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="31.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.109375" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="1" t="str">
+        <f>C11&amp;""</f>
+        <v>4.25</v>
+      </c>
+      <c r="C11" s="1">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="1" t="str">
+        <f>C15&amp;""</f>
+        <v>4111111111111111</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="1" t="str">
+        <f t="shared" ref="B16:B17" si="0">C16&amp;""</f>
+        <v>0624</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>123</v>
+      </c>
+      <c r="C17" s="1">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2760" windowWidth="18312" windowHeight="6096"/>
+    <workbookView xWindow="0" yWindow="2448" windowWidth="19164" windowHeight="5856"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Habco" sheetId="3" r:id="rId2"/>
+    <sheet name="GumBall" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <oleSize ref="A1:N18"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="61">
   <si>
     <t>Mountain Dew</t>
   </si>
@@ -37,9 +38,6 @@
   </si>
   <si>
     <t>Amount</t>
-  </si>
-  <si>
-    <t>Payment Gatway</t>
   </si>
   <si>
     <t>CardCvv</t>
@@ -124,12 +122,114 @@
   <si>
     <t>0624</t>
   </si>
+  <si>
+    <t>product2</t>
+  </si>
+  <si>
+    <t>product4</t>
+  </si>
+  <si>
+    <t>product5</t>
+  </si>
+  <si>
+    <t>product6</t>
+  </si>
+  <si>
+    <t>Sprite</t>
+  </si>
+  <si>
+    <t>Almond Joy</t>
+  </si>
+  <si>
+    <t>Mars</t>
+  </si>
+  <si>
+    <t>Snickers</t>
+  </si>
+  <si>
+    <t>Orange Juice</t>
+  </si>
+  <si>
+    <t>Coke</t>
+  </si>
+  <si>
+    <t>habcoUrl</t>
+  </si>
+  <si>
+    <t>http://habco.wevend.link/?deviceId=64a81146a3a16e9c7dba0d97</t>
+  </si>
+  <si>
+    <t>airservUrl</t>
+  </si>
+  <si>
+    <t>http://52.66.255.163:3006/?deviceId=3890CCF9F50C</t>
+  </si>
+  <si>
+    <t>airservTitle</t>
+  </si>
+  <si>
+    <t>Air-Serv</t>
+  </si>
+  <si>
+    <t>HabcoTitle</t>
+  </si>
+  <si>
+    <t>http://gumball.wevendmqtt.click/</t>
+  </si>
+  <si>
+    <t>Pink Lemonade Gumballs</t>
+  </si>
+  <si>
+    <t>Grape Gumballs</t>
+  </si>
+  <si>
+    <t>Cherry Gumballs</t>
+  </si>
+  <si>
+    <t>Berry Gumballs</t>
+  </si>
+  <si>
+    <t>product7</t>
+  </si>
+  <si>
+    <t>product8</t>
+  </si>
+  <si>
+    <t>product9</t>
+  </si>
+  <si>
+    <t>Watermelon Gumballs</t>
+  </si>
+  <si>
+    <t>Green Apple Gumballs</t>
+  </si>
+  <si>
+    <t>Mega Fruit Gumballs</t>
+  </si>
+  <si>
+    <t>Fancy Fruit Gumballs</t>
+  </si>
+  <si>
+    <t>Cotton Candy Gumballs</t>
+  </si>
+  <si>
+    <t>GumballUrl</t>
+  </si>
+  <si>
+    <t>GumballTitle</t>
+  </si>
+  <si>
+    <t>weVend Gateway</t>
+  </si>
+  <si>
+    <t>PaymentMethodName</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,6 +270,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF2A00FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -188,10 +309,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -204,8 +326,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -213,6 +342,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -505,10 +637,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -520,171 +652,428 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
+      <c r="A2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>0</v>
+      <c r="A3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>21</v>
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="1" t="str">
-        <f>C11&amp;""</f>
-        <v>4.25</v>
-      </c>
-      <c r="C11" s="1">
-        <v>4.25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>26</v>
+        <v>14</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="B14" s="1" t="str">
+        <f>C14&amp;""</f>
+        <v>4.25</v>
+      </c>
+      <c r="C14" s="1">
+        <v>4.25</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="1" t="str">
-        <f>C15&amp;""</f>
-        <v>4111111111111111</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="1" t="str">
-        <f t="shared" ref="B16:B17" si="0">C16&amp;""</f>
-        <v>0624</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>27</v>
+      <c r="A15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="1" t="str">
+      <c r="B18" s="1" t="str">
+        <f>C18&amp;""</f>
+        <v>4111111111111111</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="1" t="str">
+        <f t="shared" ref="B19:B20" si="0">C19&amp;""</f>
+        <v>0624</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="1" t="str">
         <f t="shared" si="0"/>
         <v>123</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C20" s="1">
         <v>123</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="1" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="B21" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="A1:B13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11.5546875" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B9" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -4,15 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2448" windowWidth="19164" windowHeight="5856"/>
+    <workbookView xWindow="0" yWindow="2448" windowWidth="22464" windowHeight="8124" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Wevend" sheetId="1" r:id="rId1"/>
     <sheet name="Habco" sheetId="3" r:id="rId2"/>
     <sheet name="GumBall" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <oleSize ref="A1:N18"/>
+  <oleSize ref="A1:Q17"/>
 </workbook>
 </file>
 
@@ -639,8 +639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -841,7 +841,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="A1:B13"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -951,7 +951,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
